--- a/column_stats_2024.xlsx
+++ b/column_stats_2024.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharyarmand/Desktop/Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharyarmand/Desktop/CS-5500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C56C0520-C1A9-FC4C-ADA3-81CA2D4759AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF155D0-3D01-D743-91F8-6D45937CC491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{F869DE2B-3446-864F-9151-68A42A9B9E2C}"/>
+    <workbookView xWindow="2460" yWindow="1920" windowWidth="27640" windowHeight="16940" xr2:uid="{F869DE2B-3446-864F-9151-68A42A9B9E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="column_stats_2024" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">column_stats_2024!$A$1:$M$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">column_stats_2024!$A$1:$L$114</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="227">
   <si>
     <t>Column</t>
   </si>
@@ -453,6 +453,270 @@
   </si>
   <si>
     <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The type of pitch derived from Statcast.</t>
+  </si>
+  <si>
+    <t>Date of the Game.</t>
+  </si>
+  <si>
+    <t>Pitch velocities from 2008-16 are via Pitch F/X, and adjusted to roughly out-of-hand release point. All velocities from 2017 and beyond are Statcast, reported out-of-hand.</t>
+  </si>
+  <si>
+    <t>Horizontal Release Position of the ball measured in feet from the catcher's perspective.</t>
+  </si>
+  <si>
+    <t>Vertical Release Position of the ball measured in feet from the catcher's perspective.</t>
+  </si>
+  <si>
+    <t>Player's name tied to the event of the search.</t>
+  </si>
+  <si>
+    <t>MLB Player Id tied to the play event.</t>
+  </si>
+  <si>
+    <t>Event of the resulting Plate Appearance.</t>
+  </si>
+  <si>
+    <t>Description of the resulting pitch.</t>
+  </si>
+  <si>
+    <t>* Deprecated field from the old tracking system.</t>
+  </si>
+  <si>
+    <t>* Deprecated field from the old tracking system. Replaced by release_spin.</t>
+  </si>
+  <si>
+    <t>Zone location of the ball when it crosses the plate from the catcher's perspective.</t>
+  </si>
+  <si>
+    <t>Plate appearance description from game day.</t>
+  </si>
+  <si>
+    <t>Type of Game. E = Exhibition, S = Spring Training, R = Regular Season, F = Wild Card, D = Divisional Series, L = League Championship Series, W = World Series.</t>
+  </si>
+  <si>
+    <t>Side of the plate batter is standing.</t>
+  </si>
+  <si>
+    <t>Hand pitcher throws with.</t>
+  </si>
+  <si>
+    <t>Abbreviation of home team.</t>
+  </si>
+  <si>
+    <t>Abbreviation of away team.</t>
+  </si>
+  <si>
+    <t>Short hand of pitch result. B = ball, S = strike, X = in play.</t>
+  </si>
+  <si>
+    <t>Position of first fielder to touch the ball.</t>
+  </si>
+  <si>
+    <t>Batted ball type, ground_ball, line_drive, fly_ball, popup.</t>
+  </si>
+  <si>
+    <t>Pre-pitch number of balls in count.</t>
+  </si>
+  <si>
+    <t>Pre-pitch number of strikes in count.</t>
+  </si>
+  <si>
+    <t>Year game took place.</t>
+  </si>
+  <si>
+    <t>Horizontal movement in feet from the catcher's perspective.</t>
+  </si>
+  <si>
+    <t>Vertical movement in feet from the catcher's perspective.</t>
+  </si>
+  <si>
+    <t>Horizontal position of the ball when it crosses home plate from the catcher's perspective.</t>
+  </si>
+  <si>
+    <t>Vertical position of the ball when it crosses home plate from the catcher's perspective.</t>
+  </si>
+  <si>
+    <t>Pre-pitch MLB Player Id of Runner on 3B.</t>
+  </si>
+  <si>
+    <t>Pre-pitch MLB Player Id of Runner on 2B.</t>
+  </si>
+  <si>
+    <t>Pre-pitch MLB Player Id of Runner on 1B.</t>
+  </si>
+  <si>
+    <t>Pre-pitch number of outs.</t>
+  </si>
+  <si>
+    <t>Pre-pitch inning number.</t>
+  </si>
+  <si>
+    <t>Pre-pitch top or bottom of inning.</t>
+  </si>
+  <si>
+    <t>Hit coordinate X of batted ball.</t>
+  </si>
+  <si>
+    <t>Hit coordinate Y of batted ball.</t>
+  </si>
+  <si>
+    <t>* Deprecated field from old tracking system.</t>
+  </si>
+  <si>
+    <t>Non-unique Id of play event per game.</t>
+  </si>
+  <si>
+    <t>The velocity of the pitch, in feet per second, in x-dimension, determined at y=50 feet.</t>
+  </si>
+  <si>
+    <t>The velocity of the pitch, in feet per second, in y-dimension, determined at y=50 feet.</t>
+  </si>
+  <si>
+    <t>The velocity of the pitch, in feet per second, in z-dimension, determined at y=50 feet.</t>
+  </si>
+  <si>
+    <t>The acceleration of the pitch, in feet per second per second, in x-dimension, determined at y=50 feet.</t>
+  </si>
+  <si>
+    <t>The acceleration of the pitch, in feet per second per second, in y-dimension, determined at y=50 feet.</t>
+  </si>
+  <si>
+    <t>The acceleration of the pitch, in feet per second per second, in z-dimension, determined at y=50 feet.</t>
+  </si>
+  <si>
+    <t>Top of the batter's strike zone set by the operator when the ball is halfway to the plate.</t>
+  </si>
+  <si>
+    <t>Bottom of the batter's strike zone set by the operator when the ball is halfway to the plate.</t>
+  </si>
+  <si>
+    <t>Projected hit distance of the batted ball.</t>
+  </si>
+  <si>
+    <t>Exit velocity of the batted ball as tracked by Statcast. For the limited subset of batted balls not tracked directly, estimates are included based on the process described here.</t>
+  </si>
+  <si>
+    <t>Launch angle of the batted ball as tracked by Statcast. For the limited subset of batted balls not tracked directly, estimates are included based on the process described here.</t>
+  </si>
+  <si>
+    <t>Derived speed based on the extension of the pitcher's release.</t>
+  </si>
+  <si>
+    <t>Spin rate of pitch tracked by Statcast.</t>
+  </si>
+  <si>
+    <t>Release extension of pitch in feet as tracked by Statcast.</t>
+  </si>
+  <si>
+    <t>Unique Id for Game.</t>
+  </si>
+  <si>
+    <t>Pre-pitch MLB Player Id of Catcher.</t>
+  </si>
+  <si>
+    <t>MLB Player Id for 1B.</t>
+  </si>
+  <si>
+    <t>MLB Player Id for 2B.</t>
+  </si>
+  <si>
+    <t>MLB Player Id for 3B.</t>
+  </si>
+  <si>
+    <t>MLB Player Id for SS.</t>
+  </si>
+  <si>
+    <t>MLB Player Id for LF.</t>
+  </si>
+  <si>
+    <t>MLB Player Id for CF.</t>
+  </si>
+  <si>
+    <t>MLB Player Id for RF.</t>
+  </si>
+  <si>
+    <t>Release position of pitch measured in feet from the catcher's perspective.</t>
+  </si>
+  <si>
+    <t>Estimated Batting Avg based on launch angle and exit velocity.</t>
+  </si>
+  <si>
+    <t>Estimated wOBA based on launch angle and exit velocity.</t>
+  </si>
+  <si>
+    <t>wOBA value based on result of play.</t>
+  </si>
+  <si>
+    <t>wOBA denominator based on result of play.</t>
+  </si>
+  <si>
+    <t>BABIP value based on result of play.</t>
+  </si>
+  <si>
+    <t>ISO value based on result of play.</t>
+  </si>
+  <si>
+    <t>Launch speed/angle zone based on launch angle and exit velocity.</t>
+  </si>
+  <si>
+    <t>Plate appearance number of the game.</t>
+  </si>
+  <si>
+    <t>Total pitch number of the plate appearance.</t>
+  </si>
+  <si>
+    <t>The name of the pitch derived from the Statcast Data.</t>
+  </si>
+  <si>
+    <t>Pre-pitch home score.</t>
+  </si>
+  <si>
+    <t>Pre-pitch away score.</t>
+  </si>
+  <si>
+    <t>Pre-pitch bat team score.</t>
+  </si>
+  <si>
+    <t>Pre-pitch field team score.</t>
+  </si>
+  <si>
+    <t>Post-pitch away score.</t>
+  </si>
+  <si>
+    <t>Post-pitch home score.</t>
+  </si>
+  <si>
+    <t>Post-pitch bat team score.</t>
+  </si>
+  <si>
+    <t>Post-pitch field team score.</t>
+  </si>
+  <si>
+    <t>Infield fielding alignment at the time of the pitch.</t>
+  </si>
+  <si>
+    <t>Outfield fielding alignment at the time of the pitch.</t>
+  </si>
+  <si>
+    <t>The Spin Axis in the 2D X-Z plane in degrees from 0 to 360.</t>
+  </si>
+  <si>
+    <t>The change in Win Expectancy before the Plate Appearance and after the Plate Appearance.</t>
+  </si>
+  <si>
+    <t>The change in Run Expectancy before the Pitch and after the Pitch.</t>
+  </si>
+  <si>
+    <t>Age of pitcher.</t>
+  </si>
+  <si>
+    <t>Age of batter.</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1570,7 @@
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1318,7 +1582,6 @@
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -1352,11 +1615,14 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
+      <c r="K1" t="s">
+        <v>130</v>
+      </c>
       <c r="L1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1378,8 +1644,11 @@
       <c r="J2">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K2" t="s">
         <v>124</v>
+      </c>
+      <c r="M2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -1401,8 +1670,11 @@
       <c r="J3">
         <v>219</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>136</v>
+      </c>
+      <c r="M3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -1436,11 +1708,14 @@
       <c r="J4">
         <v>669</v>
       </c>
+      <c r="K4" t="s">
+        <v>131</v>
+      </c>
       <c r="L4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -1474,11 +1749,14 @@
       <c r="J5">
         <v>933</v>
       </c>
+      <c r="K5" t="s">
+        <v>131</v>
+      </c>
       <c r="L5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -1512,11 +1790,14 @@
       <c r="J6">
         <v>613</v>
       </c>
+      <c r="K6" t="s">
+        <v>131</v>
+      </c>
       <c r="L6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1538,8 +1819,11 @@
       <c r="J7">
         <v>1176</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" t="s">
         <v>124</v>
+      </c>
+      <c r="M7" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1561,11 +1845,14 @@
       <c r="J8">
         <v>1435</v>
       </c>
+      <c r="K8" t="s">
+        <v>124</v>
+      </c>
       <c r="L8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1587,11 +1874,14 @@
       <c r="J9">
         <v>1178</v>
       </c>
+      <c r="K9" t="s">
+        <v>124</v>
+      </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1613,8 +1903,11 @@
       <c r="J10">
         <v>21</v>
       </c>
-      <c r="L10" t="s">
+      <c r="K10" t="s">
         <v>124</v>
+      </c>
+      <c r="M10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1636,8 +1929,11 @@
       <c r="J11">
         <v>13</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
         <v>124</v>
+      </c>
+      <c r="M11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1659,11 +1955,14 @@
       <c r="J12">
         <v>0</v>
       </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
       <c r="L12" t="s">
         <v>126</v>
       </c>
       <c r="M12" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1685,11 +1984,14 @@
       <c r="J13">
         <v>0</v>
       </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
       <c r="L13" t="s">
         <v>126</v>
       </c>
       <c r="M13" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1711,11 +2013,14 @@
       <c r="J14">
         <v>0</v>
       </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
       <c r="L14" t="s">
         <v>126</v>
       </c>
       <c r="M14" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -1737,11 +2042,14 @@
       <c r="J15">
         <v>0</v>
       </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
       <c r="L15" t="s">
         <v>126</v>
       </c>
       <c r="M15" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1775,8 +2083,11 @@
       <c r="J16">
         <v>13</v>
       </c>
-      <c r="L16" t="s">
+      <c r="K16" t="s">
         <v>124</v>
+      </c>
+      <c r="M16" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
@@ -1798,8 +2109,11 @@
       <c r="J17">
         <v>133530</v>
       </c>
-      <c r="L17" t="s">
+      <c r="K17" t="s">
         <v>124</v>
+      </c>
+      <c r="M17" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1821,8 +2135,11 @@
       <c r="J18">
         <v>6</v>
       </c>
-      <c r="L18" t="s">
+      <c r="K18" t="s">
         <v>124</v>
+      </c>
+      <c r="M18" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1844,8 +2161,11 @@
       <c r="J19">
         <v>2</v>
       </c>
-      <c r="L19" t="s">
+      <c r="K19" t="s">
         <v>124</v>
+      </c>
+      <c r="M19" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1867,8 +2187,11 @@
       <c r="J20">
         <v>2</v>
       </c>
-      <c r="L20" t="s">
+      <c r="K20" t="s">
         <v>124</v>
+      </c>
+      <c r="M20" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1890,8 +2213,11 @@
       <c r="J21">
         <v>30</v>
       </c>
-      <c r="L21" t="s">
+      <c r="K21" t="s">
         <v>124</v>
+      </c>
+      <c r="M21" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -1913,8 +2239,11 @@
       <c r="J22">
         <v>30</v>
       </c>
-      <c r="L22" t="s">
+      <c r="K22" t="s">
         <v>124</v>
+      </c>
+      <c r="M22" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
@@ -1936,8 +2265,11 @@
       <c r="J23">
         <v>3</v>
       </c>
-      <c r="L23" t="s">
+      <c r="K23" t="s">
         <v>124</v>
+      </c>
+      <c r="M23" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -1971,8 +2303,11 @@
       <c r="J24">
         <v>9</v>
       </c>
-      <c r="L24" t="s">
+      <c r="K24" t="s">
         <v>124</v>
+      </c>
+      <c r="M24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1994,8 +2329,11 @@
       <c r="J25">
         <v>4</v>
       </c>
-      <c r="L25" t="s">
+      <c r="K25" t="s">
         <v>124</v>
+      </c>
+      <c r="M25" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2029,11 +2367,14 @@
       <c r="J26">
         <v>5</v>
       </c>
+      <c r="K26" t="s">
+        <v>131</v>
+      </c>
       <c r="L26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M26" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2067,11 +2408,14 @@
       <c r="J27">
         <v>3</v>
       </c>
+      <c r="K27" t="s">
+        <v>131</v>
+      </c>
       <c r="L27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M27" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2093,11 +2437,14 @@
       <c r="J28">
         <v>1</v>
       </c>
+      <c r="K28" t="s">
+        <v>124</v>
+      </c>
       <c r="L28" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="M28" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2131,11 +2478,14 @@
       <c r="J29">
         <v>454</v>
       </c>
+      <c r="K29" t="s">
+        <v>131</v>
+      </c>
       <c r="L29" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M29" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -2169,11 +2519,14 @@
       <c r="J30">
         <v>414</v>
       </c>
-      <c r="L30" s="3" t="s">
-        <v>131</v>
+      <c r="K30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L30" t="s">
+        <v>135</v>
       </c>
       <c r="M30" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
@@ -2207,11 +2560,14 @@
       <c r="J31">
         <v>801</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>131</v>
+      <c r="K31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" t="s">
+        <v>135</v>
       </c>
       <c r="M31" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -2245,11 +2601,14 @@
       <c r="J32">
         <v>910</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>131</v>
+      <c r="K32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L32" t="s">
+        <v>135</v>
       </c>
       <c r="M32" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2268,11 +2627,14 @@
       <c r="J33">
         <v>844</v>
       </c>
-      <c r="L33" t="s">
+      <c r="K33" t="s">
         <v>124</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>133</v>
+      </c>
+      <c r="M33" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
@@ -2291,11 +2653,14 @@
       <c r="J34">
         <v>1000</v>
       </c>
-      <c r="L34" t="s">
+      <c r="K34" t="s">
         <v>124</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>133</v>
+      </c>
+      <c r="M34" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -2314,11 +2679,14 @@
       <c r="J35">
         <v>1127</v>
       </c>
-      <c r="L35" t="s">
+      <c r="K35" t="s">
         <v>124</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>133</v>
+      </c>
+      <c r="M35" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2352,11 +2720,14 @@
       <c r="J36">
         <v>3</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>131</v>
+      <c r="K36" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L36" t="s">
+        <v>134</v>
       </c>
       <c r="M36" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2390,11 +2761,14 @@
       <c r="J37">
         <v>14</v>
       </c>
-      <c r="L37" s="3" t="s">
-        <v>131</v>
+      <c r="K37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L37" t="s">
+        <v>134</v>
       </c>
       <c r="M37" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
@@ -2416,8 +2790,11 @@
       <c r="J38">
         <v>2</v>
       </c>
-      <c r="L38" t="s">
+      <c r="K38" t="s">
         <v>124</v>
+      </c>
+      <c r="M38" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
@@ -2451,11 +2828,14 @@
       <c r="J39">
         <v>19438</v>
       </c>
-      <c r="L39" s="3" t="s">
-        <v>131</v>
+      <c r="K39" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L39" t="s">
+        <v>135</v>
       </c>
       <c r="M39" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -2489,11 +2869,14 @@
       <c r="J40">
         <v>17461</v>
       </c>
-      <c r="L40" s="3" t="s">
-        <v>131</v>
+      <c r="K40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40" t="s">
+        <v>135</v>
       </c>
       <c r="M40" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
@@ -2515,11 +2898,14 @@
       <c r="J41">
         <v>0</v>
       </c>
+      <c r="K41" t="s">
+        <v>126</v>
+      </c>
       <c r="L41" t="s">
         <v>126</v>
       </c>
       <c r="M41" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
@@ -2541,11 +2927,14 @@
       <c r="J42">
         <v>0</v>
       </c>
+      <c r="K42" t="s">
+        <v>126</v>
+      </c>
       <c r="L42" t="s">
         <v>126</v>
       </c>
       <c r="M42" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2567,11 +2956,14 @@
       <c r="J43">
         <v>0</v>
       </c>
+      <c r="K43" t="s">
+        <v>126</v>
+      </c>
       <c r="L43" t="s">
         <v>126</v>
       </c>
       <c r="M43" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2593,11 +2985,14 @@
       <c r="J44">
         <v>0</v>
       </c>
+      <c r="K44" t="s">
+        <v>126</v>
+      </c>
       <c r="L44" t="s">
         <v>126</v>
       </c>
       <c r="M44" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -2631,11 +3026,14 @@
       <c r="J45">
         <v>742825</v>
       </c>
+      <c r="K45" t="s">
+        <v>131</v>
+      </c>
       <c r="L45" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M45" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
@@ -2669,11 +3067,14 @@
       <c r="J46">
         <v>742825</v>
       </c>
+      <c r="K46" t="s">
+        <v>131</v>
+      </c>
       <c r="L46" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M46" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -2707,11 +3108,14 @@
       <c r="J47">
         <v>742825</v>
       </c>
+      <c r="K47" t="s">
+        <v>131</v>
+      </c>
       <c r="L47" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M47" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -2745,11 +3149,14 @@
       <c r="J48">
         <v>742825</v>
       </c>
+      <c r="K48" t="s">
+        <v>131</v>
+      </c>
       <c r="L48" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M48" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -2783,11 +3190,14 @@
       <c r="J49">
         <v>742824</v>
       </c>
+      <c r="K49" t="s">
+        <v>131</v>
+      </c>
       <c r="L49" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M49" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
@@ -2821,11 +3231,14 @@
       <c r="J50">
         <v>742824</v>
       </c>
+      <c r="K50" t="s">
+        <v>131</v>
+      </c>
       <c r="L50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M50" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -2859,11 +3272,14 @@
       <c r="J51">
         <v>175</v>
       </c>
+      <c r="K51" t="s">
+        <v>131</v>
+      </c>
       <c r="L51" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M51" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -2897,11 +3313,14 @@
       <c r="J52">
         <v>112</v>
       </c>
+      <c r="K52" t="s">
+        <v>131</v>
+      </c>
       <c r="L52" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M52" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -2935,11 +3354,14 @@
       <c r="J53">
         <v>481</v>
       </c>
+      <c r="K53" t="s">
+        <v>131</v>
+      </c>
       <c r="L53" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M53" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
@@ -2973,11 +3395,14 @@
       <c r="J54">
         <v>1116</v>
       </c>
+      <c r="K54" t="s">
+        <v>131</v>
+      </c>
       <c r="L54" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M54" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -3011,11 +3436,14 @@
       <c r="J55">
         <v>181</v>
       </c>
+      <c r="K55" t="s">
+        <v>131</v>
+      </c>
       <c r="L55" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M55" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
@@ -3049,11 +3477,14 @@
       <c r="J56">
         <v>713</v>
       </c>
+      <c r="K56" t="s">
+        <v>131</v>
+      </c>
       <c r="L56" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M56" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
@@ -3087,11 +3518,14 @@
       <c r="J57">
         <v>3364</v>
       </c>
+      <c r="K57" t="s">
+        <v>131</v>
+      </c>
       <c r="L57" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M57" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
@@ -3125,11 +3559,14 @@
       <c r="J58">
         <v>56</v>
       </c>
+      <c r="K58" t="s">
+        <v>131</v>
+      </c>
       <c r="L58" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M58" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
@@ -3163,11 +3600,14 @@
       <c r="J59">
         <v>2629</v>
       </c>
+      <c r="K59" t="s">
+        <v>124</v>
+      </c>
       <c r="L59" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M59" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
@@ -3189,11 +3629,14 @@
       <c r="J60">
         <v>198</v>
       </c>
+      <c r="K60" t="s">
+        <v>124</v>
+      </c>
       <c r="L60" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M60" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
@@ -3215,11 +3658,14 @@
       <c r="J61">
         <v>299</v>
       </c>
+      <c r="K61" t="s">
+        <v>124</v>
+      </c>
       <c r="L61" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M61" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
@@ -3241,11 +3687,14 @@
       <c r="J62">
         <v>340</v>
       </c>
+      <c r="K62" t="s">
+        <v>124</v>
+      </c>
       <c r="L62" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M62" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -3267,11 +3716,14 @@
       <c r="J63">
         <v>319</v>
       </c>
+      <c r="K63" t="s">
+        <v>124</v>
+      </c>
       <c r="L63" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M63" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
@@ -3293,11 +3745,14 @@
       <c r="J64">
         <v>256</v>
       </c>
+      <c r="K64" t="s">
+        <v>124</v>
+      </c>
       <c r="L64" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M64" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
@@ -3319,11 +3774,14 @@
       <c r="J65">
         <v>411</v>
       </c>
+      <c r="K65" t="s">
+        <v>124</v>
+      </c>
       <c r="L65" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M65" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
@@ -3345,11 +3803,14 @@
       <c r="J66">
         <v>309</v>
       </c>
+      <c r="K66" t="s">
+        <v>124</v>
+      </c>
       <c r="L66" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M66" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
@@ -3371,11 +3832,14 @@
       <c r="J67">
         <v>391</v>
       </c>
+      <c r="K67" t="s">
+        <v>124</v>
+      </c>
       <c r="L67" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M67" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
@@ -3409,11 +3873,14 @@
       <c r="J68">
         <v>520</v>
       </c>
+      <c r="K68" t="s">
+        <v>131</v>
+      </c>
       <c r="L68" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M68" t="s">
-        <v>135</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
@@ -3447,11 +3914,14 @@
       <c r="J69">
         <v>350</v>
       </c>
+      <c r="K69" t="s">
+        <v>131</v>
+      </c>
       <c r="L69" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M69" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
@@ -3485,11 +3955,14 @@
       <c r="J70">
         <v>1130</v>
       </c>
+      <c r="K70" t="s">
+        <v>131</v>
+      </c>
       <c r="L70" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M70" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
@@ -3523,11 +3996,14 @@
       <c r="J71">
         <v>7</v>
       </c>
+      <c r="K71" t="s">
+        <v>131</v>
+      </c>
       <c r="L71" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M71" t="s">
-        <v>135</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
@@ -3561,11 +4037,14 @@
       <c r="J72">
         <v>2</v>
       </c>
+      <c r="K72" t="s">
+        <v>131</v>
+      </c>
       <c r="L72" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M72" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
@@ -3599,11 +4078,14 @@
       <c r="J73">
         <v>2</v>
       </c>
+      <c r="K73" t="s">
+        <v>131</v>
+      </c>
       <c r="L73" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M73" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
@@ -3637,11 +4119,14 @@
       <c r="J74">
         <v>4</v>
       </c>
+      <c r="K74" t="s">
+        <v>131</v>
+      </c>
       <c r="L74" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M74" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
@@ -3675,8 +4160,11 @@
       <c r="J75">
         <v>6</v>
       </c>
-      <c r="L75" t="s">
-        <v>131</v>
+      <c r="K75" t="s">
+        <v>131</v>
+      </c>
+      <c r="M75" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
@@ -3710,11 +4198,14 @@
       <c r="J76">
         <v>114</v>
       </c>
+      <c r="K76" t="s">
+        <v>131</v>
+      </c>
       <c r="L76" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M76" t="s">
-        <v>134</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
@@ -3748,11 +4239,14 @@
       <c r="J77">
         <v>16</v>
       </c>
+      <c r="K77" t="s">
+        <v>131</v>
+      </c>
       <c r="L77" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M77" t="s">
-        <v>134</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
@@ -3774,8 +4268,11 @@
       <c r="J78">
         <v>17</v>
       </c>
-      <c r="L78" t="s">
+      <c r="K78" t="s">
         <v>124</v>
+      </c>
+      <c r="M78" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
@@ -3809,11 +4306,14 @@
       <c r="J79">
         <v>20</v>
       </c>
+      <c r="K79" t="s">
+        <v>131</v>
+      </c>
       <c r="L79" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M79" t="s">
-        <v>134</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
@@ -3847,11 +4347,14 @@
       <c r="J80">
         <v>21</v>
       </c>
+      <c r="K80" t="s">
+        <v>131</v>
+      </c>
       <c r="L80" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M80" t="s">
-        <v>134</v>
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -3885,11 +4388,14 @@
       <c r="J81">
         <v>21</v>
       </c>
+      <c r="K81" t="s">
+        <v>131</v>
+      </c>
       <c r="L81" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M81" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -3923,11 +4429,14 @@
       <c r="J82">
         <v>21</v>
       </c>
+      <c r="K82" t="s">
+        <v>131</v>
+      </c>
       <c r="L82" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M82" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -3961,11 +4470,14 @@
       <c r="J83">
         <v>21</v>
       </c>
+      <c r="K83" t="s">
+        <v>131</v>
+      </c>
       <c r="L83" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M83" t="s">
-        <v>134</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
@@ -3999,11 +4511,14 @@
       <c r="J84">
         <v>20</v>
       </c>
+      <c r="K84" t="s">
+        <v>131</v>
+      </c>
       <c r="L84" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M84" t="s">
-        <v>134</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
@@ -4037,11 +4552,14 @@
       <c r="J85">
         <v>21</v>
       </c>
+      <c r="K85" t="s">
+        <v>131</v>
+      </c>
       <c r="L85" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M85" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
@@ -4075,11 +4593,14 @@
       <c r="J86">
         <v>21</v>
       </c>
+      <c r="K86" t="s">
+        <v>131</v>
+      </c>
       <c r="L86" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M86" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -4101,8 +4622,11 @@
       <c r="J87">
         <v>3</v>
       </c>
-      <c r="L87" t="s">
+      <c r="K87" t="s">
         <v>124</v>
+      </c>
+      <c r="M87" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -4124,8 +4648,11 @@
       <c r="J88">
         <v>3</v>
       </c>
-      <c r="L88" t="s">
+      <c r="K88" t="s">
         <v>124</v>
+      </c>
+      <c r="M88" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -4159,11 +4686,14 @@
       <c r="J89">
         <v>361</v>
       </c>
+      <c r="K89" t="s">
+        <v>131</v>
+      </c>
       <c r="L89" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M89" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -4197,11 +4727,14 @@
       <c r="J90">
         <v>893</v>
       </c>
+      <c r="K90" t="s">
+        <v>131</v>
+      </c>
       <c r="L90" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M90" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -4235,11 +4768,14 @@
       <c r="J91">
         <v>1691</v>
       </c>
+      <c r="K91" t="s">
+        <v>131</v>
+      </c>
       <c r="L91" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M91" t="s">
-        <v>135</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -4273,10 +4809,10 @@
       <c r="J92">
         <v>88</v>
       </c>
+      <c r="K92" t="s">
+        <v>131</v>
+      </c>
       <c r="L92" t="s">
-        <v>131</v>
-      </c>
-      <c r="M92" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4311,10 +4847,10 @@
       <c r="J93">
         <v>13</v>
       </c>
+      <c r="K93" t="s">
+        <v>131</v>
+      </c>
       <c r="L93" t="s">
-        <v>131</v>
-      </c>
-      <c r="M93" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4349,10 +4885,10 @@
       <c r="J94">
         <v>1424</v>
       </c>
+      <c r="K94" t="s">
+        <v>131</v>
+      </c>
       <c r="L94" t="s">
-        <v>131</v>
-      </c>
-      <c r="M94" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4387,10 +4923,10 @@
       <c r="J95">
         <v>1691</v>
       </c>
+      <c r="K95" t="s">
+        <v>131</v>
+      </c>
       <c r="L95" t="s">
-        <v>131</v>
-      </c>
-      <c r="M95" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4425,10 +4961,10 @@
       <c r="J96">
         <v>315</v>
       </c>
+      <c r="K96" t="s">
+        <v>131</v>
+      </c>
       <c r="L96" t="s">
-        <v>131</v>
-      </c>
-      <c r="M96" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4463,10 +4999,10 @@
       <c r="J97">
         <v>35</v>
       </c>
+      <c r="K97" t="s">
+        <v>131</v>
+      </c>
       <c r="L97" t="s">
-        <v>131</v>
-      </c>
-      <c r="M97" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4501,10 +5037,10 @@
       <c r="J98">
         <v>35</v>
       </c>
+      <c r="K98" t="s">
+        <v>131</v>
+      </c>
       <c r="L98" t="s">
-        <v>131</v>
-      </c>
-      <c r="M98" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4539,10 +5075,10 @@
       <c r="J99">
         <v>974</v>
       </c>
+      <c r="K99" t="s">
+        <v>131</v>
+      </c>
       <c r="L99" t="s">
-        <v>131</v>
-      </c>
-      <c r="M99" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4577,10 +5113,10 @@
       <c r="J100">
         <v>979</v>
       </c>
+      <c r="K100" t="s">
+        <v>131</v>
+      </c>
       <c r="L100" t="s">
-        <v>131</v>
-      </c>
-      <c r="M100" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4615,10 +5151,10 @@
       <c r="J101">
         <v>23</v>
       </c>
+      <c r="K101" t="s">
+        <v>131</v>
+      </c>
       <c r="L101" t="s">
-        <v>131</v>
-      </c>
-      <c r="M101" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4653,10 +5189,10 @@
       <c r="J102">
         <v>24</v>
       </c>
+      <c r="K102" t="s">
+        <v>131</v>
+      </c>
       <c r="L102" t="s">
-        <v>131</v>
-      </c>
-      <c r="M102" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4691,11 +5227,14 @@
       <c r="J103">
         <v>22</v>
       </c>
+      <c r="K103" t="s">
+        <v>131</v>
+      </c>
       <c r="L103" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M103" t="s">
-        <v>134</v>
+        <v>225</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -4729,11 +5268,14 @@
       <c r="J104">
         <v>24</v>
       </c>
+      <c r="K104" t="s">
+        <v>131</v>
+      </c>
       <c r="L104" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M104" t="s">
-        <v>134</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -4767,10 +5309,10 @@
       <c r="J105">
         <v>4</v>
       </c>
+      <c r="K105" t="s">
+        <v>124</v>
+      </c>
       <c r="L105" t="s">
-        <v>124</v>
-      </c>
-      <c r="M105" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4805,10 +5347,10 @@
       <c r="J106">
         <v>7</v>
       </c>
+      <c r="K106" t="s">
+        <v>124</v>
+      </c>
       <c r="L106" t="s">
-        <v>124</v>
-      </c>
-      <c r="M106" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4843,10 +5385,10 @@
       <c r="J107">
         <v>119</v>
       </c>
+      <c r="K107" t="s">
+        <v>131</v>
+      </c>
       <c r="L107" t="s">
-        <v>131</v>
-      </c>
-      <c r="M107" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4881,10 +5423,10 @@
       <c r="J108">
         <v>104</v>
       </c>
+      <c r="K108" t="s">
+        <v>131</v>
+      </c>
       <c r="L108" t="s">
-        <v>131</v>
-      </c>
-      <c r="M108" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4919,10 +5461,10 @@
       <c r="J109">
         <v>119</v>
       </c>
+      <c r="K109" t="s">
+        <v>131</v>
+      </c>
       <c r="L109" t="s">
-        <v>131</v>
-      </c>
-      <c r="M109" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4957,10 +5499,10 @@
       <c r="J110">
         <v>104</v>
       </c>
+      <c r="K110" t="s">
+        <v>131</v>
+      </c>
       <c r="L110" t="s">
-        <v>131</v>
-      </c>
-      <c r="M110" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4995,10 +5537,10 @@
       <c r="J111">
         <v>937</v>
       </c>
+      <c r="K111" t="s">
+        <v>131</v>
+      </c>
       <c r="L111" t="s">
-        <v>131</v>
-      </c>
-      <c r="M111" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5033,14 +5575,14 @@
       <c r="J112">
         <v>453</v>
       </c>
+      <c r="K112" t="s">
+        <v>131</v>
+      </c>
       <c r="L112" t="s">
-        <v>131</v>
-      </c>
-      <c r="M112" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5071,14 +5613,14 @@
       <c r="J113">
         <v>456</v>
       </c>
+      <c r="K113" t="s">
+        <v>131</v>
+      </c>
       <c r="L113" t="s">
-        <v>131</v>
-      </c>
-      <c r="M113" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5109,15 +5651,15 @@
       <c r="J114">
         <v>135</v>
       </c>
+      <c r="K114" t="s">
+        <v>131</v>
+      </c>
       <c r="L114" t="s">
-        <v>131</v>
-      </c>
-      <c r="M114" t="s">
         <v>135</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M114" xr:uid="{CFDF1020-5CD6-9A4D-8179-32EF22F7822C}"/>
+  <autoFilter ref="A1:L114" xr:uid="{CFDF1020-5CD6-9A4D-8179-32EF22F7822C}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
